--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abd2\Documents\Edith\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lokkumar.ext\Documents\projects\node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60715EC6-9B9A-4798-B159-55912676EF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF592DE8-0803-4D38-A012-428B5DFD0282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DE76C75-D052-46FA-8D2E-A392091CC3BB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6DE76C75-D052-46FA-8D2E-A392091CC3BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Source</t>
   </si>
@@ -105,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,15 +462,15 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -486,7 +486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -502,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -510,15 +510,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -526,7 +523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -534,7 +531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -542,15 +539,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -558,63 +552,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -622,10 +595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>20</v>
       </c>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -1,41 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lokkumar.ext\Documents\projects\node\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C604088-AC09-452A-AD24-B2B50F7641FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>SHORT</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>DISPLAY_ORDER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PARENT_TAG</t>
+  </si>
+  <si>
+    <t>HIER_NUM</t>
+  </si>
+  <si>
+    <t>HIER_NAME</t>
+  </si>
+  <si>
+    <t>HIER_LEVEL_NUM</t>
+  </si>
+  <si>
+    <t>HIER_LEVEL_NAME</t>
+  </si>
+  <si>
+    <t>HARMONISED VIEW level 0</t>
+  </si>
+  <si>
+    <t>UNILEVER SECTOR</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>UNILEVER SUB SECTOR</t>
+  </si>
+  <si>
+    <t>BASE NUMBER IN MULTIPACK</t>
+  </si>
+  <si>
+    <t>UNILEVER SUB BRAND</t>
+  </si>
+  <si>
+    <t>WEIGHT/VOLUME</t>
+  </si>
+  <si>
+    <t>VARIANT</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +123,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,191 +455,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>source</v>
-      </c>
-      <c r="B1" t="str">
-        <v>target</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>source</v>
-      </c>
-      <c r="B2" t="str">
-        <v>target</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Source</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Target</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>TAG</v>
-      </c>
-      <c r="B4" t="str">
-        <v>TAG</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>SHORT</v>
-      </c>
-      <c r="B5" t="str">
-        <v>SHORT</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>LONG</v>
-      </c>
-      <c r="B6" t="str">
-        <v>LONG</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>DISPLAY_ORDER</v>
-      </c>
-      <c r="B7" t="str">
-        <v>DISPLAY_ORDER</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v/>
-      </c>
-      <c r="B8" t="str">
-        <v>PARENT_TAG</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>HIER_NUM</v>
-      </c>
-      <c r="B9" t="str">
-        <v>HIER_NUM</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>HIER_NAME</v>
-      </c>
-      <c r="B10" t="str">
-        <v>HIER_NAME</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>HIER_LEVEL_NUM</v>
-      </c>
-      <c r="B11" t="str">
-        <v>HIER_LEVEL_NUM</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v/>
-      </c>
-      <c r="B12" t="str">
-        <v>HIER_LEVEL_NAME</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>HARMONISED VIEW level 0</v>
-      </c>
-      <c r="B13" t="str">
-        <v>HARMONISED VIEW level 0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v/>
-      </c>
-      <c r="B14" t="str">
-        <v>UNILEVER SECTOR</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v/>
-      </c>
-      <c r="B15" t="str">
-        <v>COMPANY</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v/>
-      </c>
-      <c r="B16" t="str">
-        <v>BRAND</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v/>
-      </c>
-      <c r="B17" t="str">
-        <v>UNILEVER SUB SECTOR</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v/>
-      </c>
-      <c r="B18" t="str">
-        <v>BASE NUMBER IN MULTIPACK</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v/>
-      </c>
-      <c r="B19" t="str">
-        <v>UNILEVER SUB BRAND</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v/>
-      </c>
-      <c r="B20" t="str">
-        <v>WEIGHT/VOLUME</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>VARIANT</v>
-      </c>
-      <c r="B21" t="str">
-        <v>VARIANT</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>TAG</v>
-      </c>
-      <c r="B22" t="str">
-        <v>ITEM</v>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B22"/>
+    <ignoredError sqref="A1:B19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>